--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA8DB6-8053-47DC-B859-CAE7390C720F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0815A22-DB71-42C8-A175-9B1B58EA195C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7524" yWindow="3240" windowWidth="17280" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Team Knuth Change Log</t>
   </si>
@@ -113,6 +113,54 @@
   </si>
   <si>
     <t>added update functionality to overwrite current values in database</t>
+  </si>
+  <si>
+    <t>Added ability to load tasks to the job card</t>
+  </si>
+  <si>
+    <t>Added CSS to completed button</t>
+  </si>
+  <si>
+    <t>Reformatted the GUI</t>
+  </si>
+  <si>
+    <t>Added suspended checkbox</t>
+  </si>
+  <si>
+    <t>Added navigation menu</t>
+  </si>
+  <si>
+    <t>Created confirmation messages for when a user does an action</t>
+  </si>
+  <si>
+    <t>Added sort tasks by task urgency</t>
+  </si>
+  <si>
+    <t>Added export job card to text document</t>
+  </si>
+  <si>
+    <t>Created new Gantt chart</t>
+  </si>
+  <si>
+    <t>Updated Gantt chart</t>
+  </si>
+  <si>
+    <t>Created new gantt chart</t>
+  </si>
+  <si>
+    <t>Added new fields to Task table in the database</t>
+  </si>
+  <si>
+    <t>Updated task prioritisation</t>
+  </si>
+  <si>
+    <t>Updated progress report</t>
+  </si>
+  <si>
+    <t>completed risk assessment</t>
+  </si>
+  <si>
+    <t>Transferred buttons to navigation menu on job card</t>
   </si>
 </sst>
 </file>
@@ -537,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P57"/>
+  <dimension ref="B2:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.88671875" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" customWidth="1"/>
     <col min="3" max="4" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="44.88671875" customWidth="1"/>
     <col min="7" max="8" width="17.44140625" customWidth="1"/>
@@ -878,7 +926,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -894,7 +942,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -910,7 +958,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -926,7 +974,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -942,7 +990,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -958,7 +1006,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -974,7 +1022,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -989,7 +1037,9 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="2"/>
@@ -1003,7 +1053,9 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="F28" s="2"/>
@@ -1017,7 +1069,9 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="2"/>
@@ -1031,7 +1085,9 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
@@ -1045,7 +1101,9 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
@@ -1059,7 +1117,9 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
@@ -1073,7 +1133,9 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="F33" s="2"/>
@@ -1087,7 +1149,9 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
@@ -1101,7 +1165,9 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="F35" s="2"/>
@@ -1115,7 +1181,9 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="F36" s="2"/>
@@ -1129,7 +1197,9 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
@@ -1143,7 +1213,9 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="F38" s="2"/>
@@ -1157,7 +1229,9 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="F39" s="2"/>
@@ -1171,7 +1245,9 @@
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
@@ -1185,7 +1261,9 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="F41" s="2"/>
@@ -1199,7 +1277,9 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="F42" s="2"/>
@@ -1213,7 +1293,9 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
@@ -1227,7 +1309,9 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -1241,7 +1325,9 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
@@ -1255,7 +1341,9 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="F46" s="2"/>
@@ -1422,6 +1510,62 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0815A22-DB71-42C8-A175-9B1B58EA195C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A30E3C6-EDC4-4F74-AC77-1D65861CFA7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7524" yWindow="3240" windowWidth="17280" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Team Knuth Change Log</t>
   </si>
@@ -161,6 +161,54 @@
   </si>
   <si>
     <t>Transferred buttons to navigation menu on job card</t>
+  </si>
+  <si>
+    <t>Created use case diagram v1</t>
+  </si>
+  <si>
+    <t>Created use case desciptions v1</t>
+  </si>
+  <si>
+    <t>updated use case diagram v2</t>
+  </si>
+  <si>
+    <t>Created template for mission</t>
+  </si>
+  <si>
+    <t>Added functionality to suspend a job</t>
+  </si>
+  <si>
+    <t>applied functionality to buttons/ choicebox's</t>
+  </si>
+  <si>
+    <t>Added functionality to suspend a task</t>
+  </si>
+  <si>
+    <t>Added functionality to check If task is completed</t>
+  </si>
+  <si>
+    <t>updated use case desciptions v2</t>
+  </si>
+  <si>
+    <t>applied functionality to buttons for suspend/ complete tasks</t>
+  </si>
+  <si>
+    <t>Created statement of the purpose of the system</t>
+  </si>
+  <si>
+    <t>created functionality to alert management of an overdue task</t>
+  </si>
+  <si>
+    <t>created functionality to alert customer services of overdue job</t>
+  </si>
+  <si>
+    <t>completed functionality for each part of mission</t>
+  </si>
+  <si>
+    <t>updated use case diagram v3 (final)</t>
+  </si>
+  <si>
+    <t>updated use case desciptions v3 (final)</t>
   </si>
 </sst>
 </file>
@@ -585,25 +633,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P61"/>
+  <dimension ref="B2:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="44.88671875" customWidth="1"/>
-    <col min="11" max="12" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="44.88671875" customWidth="1"/>
-    <col min="15" max="16" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="11" max="12" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -634,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -665,14 +713,11 @@
       <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -691,62 +736,70 @@
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="O5" s="9">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9">
-        <v>43503</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="9">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="9">
+        <v>43503</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="N7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="9">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="9">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -756,13 +809,16 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="8">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -772,13 +828,16 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="8">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -788,13 +847,16 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="8">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -804,13 +866,16 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="8">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -820,13 +885,16 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="8">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -836,35 +904,39 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="8">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="8">
-        <v>43506</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="8">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8">
-        <v>43511</v>
+        <v>43506</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -872,29 +944,37 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="8">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="8">
+        <v>43511</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="8">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -904,13 +984,16 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="8">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -920,13 +1003,16 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -936,13 +1022,16 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -952,13 +1041,16 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -970,11 +1062,10 @@
       <c r="L22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -986,11 +1077,10 @@
       <c r="L23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1002,11 +1092,10 @@
       <c r="L24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1018,11 +1107,10 @@
       <c r="L25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1034,11 +1122,10 @@
       <c r="L26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1050,11 +1137,10 @@
       <c r="L27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1066,11 +1152,10 @@
       <c r="L28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1082,11 +1167,10 @@
       <c r="L29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1098,11 +1182,10 @@
       <c r="L30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1114,11 +1197,10 @@
       <c r="L31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1130,11 +1212,10 @@
       <c r="L32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1146,11 +1227,10 @@
       <c r="L33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1162,11 +1242,10 @@
       <c r="L34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1178,11 +1257,10 @@
       <c r="L35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1194,11 +1272,10 @@
       <c r="L36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1210,11 +1287,10 @@
       <c r="L37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1226,11 +1302,10 @@
       <c r="L38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1242,11 +1317,10 @@
       <c r="L39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1258,11 +1332,10 @@
       <c r="L40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1274,11 +1347,10 @@
       <c r="L41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1290,11 +1362,10 @@
       <c r="L42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1306,11 +1377,10 @@
       <c r="L43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1322,11 +1392,10 @@
       <c r="L44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1338,11 +1407,10 @@
       <c r="L45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1354,10 +1422,11 @@
       <c r="L46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="F47" s="2"/>
@@ -1368,9 +1437,8 @@
       <c r="L47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1382,9 +1450,8 @@
       <c r="L48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1396,9 +1463,8 @@
       <c r="L49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1410,9 +1476,8 @@
       <c r="L50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1424,9 +1489,8 @@
       <c r="L51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1438,9 +1502,8 @@
       <c r="L52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1452,9 +1515,8 @@
       <c r="L53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1466,9 +1528,8 @@
       <c r="L54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1480,9 +1541,8 @@
       <c r="L55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1494,9 +1554,8 @@
       <c r="L56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1508,9 +1567,8 @@
       <c r="L57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1522,9 +1580,8 @@
       <c r="L58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1536,9 +1593,8 @@
       <c r="L59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1550,9 +1606,8 @@
       <c r="L60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1564,7 +1619,19 @@
       <c r="L61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A30E3C6-EDC4-4F74-AC77-1D65861CFA7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0815A22-DB71-42C8-A175-9B1B58EA195C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7524" yWindow="3240" windowWidth="17280" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Team Knuth Change Log</t>
   </si>
@@ -161,54 +161,6 @@
   </si>
   <si>
     <t>Transferred buttons to navigation menu on job card</t>
-  </si>
-  <si>
-    <t>Created use case diagram v1</t>
-  </si>
-  <si>
-    <t>Created use case desciptions v1</t>
-  </si>
-  <si>
-    <t>updated use case diagram v2</t>
-  </si>
-  <si>
-    <t>Created template for mission</t>
-  </si>
-  <si>
-    <t>Added functionality to suspend a job</t>
-  </si>
-  <si>
-    <t>applied functionality to buttons/ choicebox's</t>
-  </si>
-  <si>
-    <t>Added functionality to suspend a task</t>
-  </si>
-  <si>
-    <t>Added functionality to check If task is completed</t>
-  </si>
-  <si>
-    <t>updated use case desciptions v2</t>
-  </si>
-  <si>
-    <t>applied functionality to buttons for suspend/ complete tasks</t>
-  </si>
-  <si>
-    <t>Created statement of the purpose of the system</t>
-  </si>
-  <si>
-    <t>created functionality to alert management of an overdue task</t>
-  </si>
-  <si>
-    <t>created functionality to alert customer services of overdue job</t>
-  </si>
-  <si>
-    <t>completed functionality for each part of mission</t>
-  </si>
-  <si>
-    <t>updated use case diagram v3 (final)</t>
-  </si>
-  <si>
-    <t>updated use case desciptions v3 (final)</t>
   </si>
 </sst>
 </file>
@@ -633,25 +585,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O62"/>
+  <dimension ref="B2:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="44.85546875" customWidth="1"/>
-    <col min="11" max="12" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="8" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="44.88671875" customWidth="1"/>
+    <col min="11" max="12" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="44.88671875" customWidth="1"/>
+    <col min="15" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -682,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -713,11 +665,14 @@
       <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -736,70 +691,62 @@
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="9">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="9">
+        <v>43503</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="9">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="9">
-        <v>43503</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="9">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="9">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -809,16 +756,13 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="8">
-        <v>43528</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -828,16 +772,13 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="8">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -847,16 +788,13 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="8">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -866,16 +804,13 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="8">
-        <v>43547</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -885,16 +820,13 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="8">
-        <v>43547</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -904,39 +836,35 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="8">
-        <v>43549</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="8">
+        <v>43506</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="8">
-        <v>43549</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8">
-        <v>43506</v>
+        <v>43511</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -944,37 +872,29 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="8">
-        <v>43552</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="8">
-        <v>43511</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="8">
-        <v>43570</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -984,16 +904,13 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="8">
-        <v>43581</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1003,16 +920,13 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="8">
-        <v>43591</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1022,16 +936,13 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="8">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1041,16 +952,13 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O21" s="8">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1062,10 +970,11 @@
       <c r="L22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1077,10 +986,11 @@
       <c r="L23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1092,10 +1002,11 @@
       <c r="L24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1107,10 +1018,11 @@
       <c r="L25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1122,10 +1034,11 @@
       <c r="L26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1137,10 +1050,11 @@
       <c r="L27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1152,10 +1066,11 @@
       <c r="L28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1167,10 +1082,11 @@
       <c r="L29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1182,10 +1098,11 @@
       <c r="L30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1197,10 +1114,11 @@
       <c r="L31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1212,10 +1130,11 @@
       <c r="L32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1227,10 +1146,11 @@
       <c r="L33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1242,10 +1162,11 @@
       <c r="L34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1257,10 +1178,11 @@
       <c r="L35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1272,10 +1194,11 @@
       <c r="L36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1287,10 +1210,11 @@
       <c r="L37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1302,10 +1226,11 @@
       <c r="L38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1317,10 +1242,11 @@
       <c r="L39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1332,10 +1258,11 @@
       <c r="L40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1347,10 +1274,11 @@
       <c r="L41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1362,10 +1290,11 @@
       <c r="L42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1377,10 +1306,11 @@
       <c r="L43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1392,10 +1322,11 @@
       <c r="L44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1407,10 +1338,11 @@
       <c r="L45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1422,11 +1354,10 @@
       <c r="L46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="F47" s="2"/>
@@ -1437,8 +1368,9 @@
       <c r="L47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1450,8 +1382,9 @@
       <c r="L48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1463,8 +1396,9 @@
       <c r="L49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1476,8 +1410,9 @@
       <c r="L50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1489,8 +1424,9 @@
       <c r="L51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1502,8 +1438,9 @@
       <c r="L52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1515,8 +1452,9 @@
       <c r="L53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1528,8 +1466,9 @@
       <c r="L54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1541,8 +1480,9 @@
       <c r="L55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1554,8 +1494,9 @@
       <c r="L56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1567,8 +1508,9 @@
       <c r="L57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1580,8 +1522,9 @@
       <c r="L58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1593,8 +1536,9 @@
       <c r="L59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1606,8 +1550,9 @@
       <c r="L60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1619,19 +1564,7 @@
       <c r="L61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="P61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4385A91B-0C1D-42ED-B408-B5C371510D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB391E12-622B-4BC0-8439-A2C5431350BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Team Knuth Change Log</t>
   </si>
@@ -155,6 +155,132 @@
   </si>
   <si>
     <t>Transferred buttons to navigation menu on job card</t>
+  </si>
+  <si>
+    <t>Created user accounts in database</t>
+  </si>
+  <si>
+    <t>Added login component</t>
+  </si>
+  <si>
+    <t>Created scene controller for navigation</t>
+  </si>
+  <si>
+    <t>Created user account page</t>
+  </si>
+  <si>
+    <t>Made it so only relevant data will show to user</t>
+  </si>
+  <si>
+    <t>Added jobs, parts, users and tasks tables to user account page</t>
+  </si>
+  <si>
+    <t>If username or password doesn’t exist, a error is shown</t>
+  </si>
+  <si>
+    <t>Created statement of the purpose of the system</t>
+  </si>
+  <si>
+    <t>Created use case diagram v1</t>
+  </si>
+  <si>
+    <t>Created use case desciptions v1</t>
+  </si>
+  <si>
+    <t>Created template for mission</t>
+  </si>
+  <si>
+    <t>Added functionality to suspend a job</t>
+  </si>
+  <si>
+    <t>applied functionality to buttons/ choicebox's</t>
+  </si>
+  <si>
+    <t>Added functionality to suspend a task</t>
+  </si>
+  <si>
+    <t>Added functionality to check If task is completed</t>
+  </si>
+  <si>
+    <t>updated use case diagram v2</t>
+  </si>
+  <si>
+    <t>updated use case desciptions v2</t>
+  </si>
+  <si>
+    <t>applied functionality to buttons for suspend/ complete tasks</t>
+  </si>
+  <si>
+    <t>created functionality to alert management of an overdue task</t>
+  </si>
+  <si>
+    <t>created functionality to alert customer services of overdue job</t>
+  </si>
+  <si>
+    <t>completed functionality for each part of mission</t>
+  </si>
+  <si>
+    <t>updated use case diagram v3 (final)</t>
+  </si>
+  <si>
+    <t>updated use case desciptions v3 (final)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made a textfield to view the due date and assigned date on selected task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">created stateDiagam v1 </t>
+  </si>
+  <si>
+    <t>created sequenceDiagram v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created class diagram v4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added error handling if statements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added overdue filter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed usernames from textfields to drop down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added functionality to automatically work out due/assign date </t>
+  </si>
+  <si>
+    <t>added button to assign username and urgency to task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added search username option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added buttons to sort table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added table view to task controller </t>
+  </si>
+  <si>
+    <t>created TaskAllocate.fxml</t>
+  </si>
+  <si>
+    <t>created taskController.java</t>
+  </si>
+  <si>
+    <t>created Task.java</t>
+  </si>
+  <si>
+    <t>created class Diagram v3</t>
+  </si>
+  <si>
+    <t>created class Diagram V2</t>
+  </si>
+  <si>
+    <t>created sequence Diagramv1</t>
+  </si>
+  <si>
+    <t>created class Diagram V1</t>
   </si>
 </sst>
 </file>
@@ -566,14 +692,14 @@
   <dimension ref="B2:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="5" max="5" width="64.109375" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="44.88671875" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" customWidth="1"/>
@@ -644,11 +770,15 @@
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="8">
+        <v>43514</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="8">
+        <v>43514</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
@@ -657,84 +787,154 @@
       <c r="C6" s="8">
         <v>43503</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="8">
+        <v>43525</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="8">
+        <v>43514</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="8">
+        <v>43526</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="8">
+        <v>43514</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43528</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="8">
+        <v>43514</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="7">
+        <v>43533</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="7">
+        <v>43528</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43544</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7">
+        <v>43542</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43552</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7">
+        <v>43542</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="7">
+        <v>43552</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="7">
+        <v>43547</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -743,10 +943,18 @@
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="7">
+        <v>43559</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="7">
+        <v>43547</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -755,10 +963,18 @@
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="7">
+        <v>43560</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7">
+        <v>43549</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -769,10 +985,18 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="7">
+        <v>43562</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="7">
+        <v>43549</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -783,10 +1007,18 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43565</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="7">
+        <v>43552</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -795,10 +1027,18 @@
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="7">
+        <v>43586</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7">
+        <v>43570</v>
+      </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
@@ -807,10 +1047,18 @@
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="7">
+        <v>43587</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="7">
+        <v>43581</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -819,10 +1067,18 @@
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="7">
+        <v>43590</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="7">
+        <v>43591</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -831,10 +1087,18 @@
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="7">
+        <v>43591</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="7">
+        <v>43592</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -843,10 +1107,18 @@
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="7">
+        <v>43591</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="7">
+        <v>43592</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -855,8 +1127,12 @@
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="7">
+        <v>43592</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
@@ -867,8 +1143,12 @@
       <c r="C23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="7">
+        <v>43592</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
@@ -879,8 +1159,12 @@
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="7">
+        <v>43593</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB391E12-622B-4BC0-8439-A2C5431350BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57E145C-93DA-416F-A146-CDBFBB91A6A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Team Knuth Change Log</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>created class Diagram V1</t>
+  </si>
+  <si>
+    <t>31/04/2019</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -409,6 +412,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L61"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,11 +775,15 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="8">
+        <v>43500</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="8">
+        <v>43500</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
@@ -790,7 +807,9 @@
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="8">
+        <v>43521</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>86</v>
       </c>
@@ -808,11 +827,15 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="8">
+        <v>43503</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="8">
+        <v>43544</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>85</v>
       </c>
@@ -830,11 +853,15 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="7">
+        <v>43520</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="7">
+        <v>43548</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>84</v>
       </c>
@@ -852,11 +879,15 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="7">
+        <v>43520</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="7">
+        <v>43548</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>83</v>
       </c>
@@ -874,11 +905,15 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="7">
+        <v>43521</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="7">
+        <v>43553</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>82</v>
       </c>
@@ -896,11 +931,15 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="7">
+        <v>43514</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="7">
+        <v>43553</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>81</v>
       </c>
@@ -918,11 +957,15 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="7">
+        <v>43514</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="7">
+        <v>43534</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>80</v>
       </c>
@@ -940,7 +983,9 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="7">
+        <v>43514</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -960,7 +1005,9 @@
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="7">
+        <v>43514</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="H14" s="2" t="s">
@@ -1024,7 +1071,9 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="7">
+        <v>43551</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2" t="s">
@@ -1044,7 +1093,9 @@
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="7">
+        <v>43552</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2" t="s">
@@ -1064,7 +1115,9 @@
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="9">
+        <v>43552</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2" t="s">
@@ -1084,7 +1137,9 @@
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="9">
+        <v>43555</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -1104,7 +1159,9 @@
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="9">
+        <v>43555</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2" t="s">
@@ -1124,7 +1181,9 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="9">
+        <v>43555</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2" t="s">
@@ -1140,7 +1199,9 @@
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="9">
+        <v>43555</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2" t="s">
@@ -1156,7 +1217,9 @@
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="9">
+        <v>43528</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2" t="s">
@@ -1172,7 +1235,9 @@
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="9">
+        <v>43520</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
@@ -1184,7 +1249,9 @@
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="9">
+        <v>43559</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="H26" s="2"/>
@@ -1196,7 +1263,9 @@
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="9">
+        <v>43565</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="H27" s="2"/>
@@ -1208,7 +1277,9 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="9">
+        <v>43568</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="2"/>
@@ -1220,7 +1291,9 @@
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="9">
+        <v>43571</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
@@ -1232,7 +1305,9 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="9">
+        <v>43575</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="2"/>
@@ -1244,7 +1319,9 @@
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="9">
+        <v>43580</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="2"/>
@@ -1256,7 +1333,9 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="9">
+        <v>43580</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="H32" s="2"/>
@@ -1264,11 +1343,13 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="9">
+        <v>43580</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="H33" s="2"/>
@@ -1276,11 +1357,13 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="9">
+        <v>43581</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="H34" s="2"/>
@@ -1288,11 +1371,13 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="9">
+        <v>43583</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="H35" s="2"/>
@@ -1300,11 +1385,13 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="9">
+        <v>43583</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="H36" s="2"/>
@@ -1312,11 +1399,13 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="9">
+        <v>43584</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="H37" s="2"/>
@@ -1324,11 +1413,13 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="9">
+        <v>43584</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="H38" s="2"/>
@@ -1336,11 +1427,13 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="H39" s="2"/>
@@ -1348,11 +1441,13 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="9">
+        <v>43588</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="H40" s="2"/>
@@ -1360,11 +1455,13 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="9">
+        <v>43589</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="H41" s="2"/>
@@ -1372,218 +1469,424 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="9">
+        <v>43590</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="9">
+        <v>43590</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="9">
+        <v>43565</v>
+      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="9">
+        <v>43559</v>
+      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="9">
+        <v>43595</v>
+      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>